--- a/Assets/Config/sword.xlsx
+++ b/Assets/Config/sword.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="sword_data" sheetId="1" r:id="rId1"/>
+    <sheet name="sword" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,30 +16,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>id</t>
+    <t>sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,33 +385,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
